--- a/biology/Zoologie/Berthella_martensi/Berthella_martensi.xlsx
+++ b/biology/Zoologie/Berthella_martensi/Berthella_martensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berthelle de Marten
 Berthella martensi est une espèce de Pleurobranchomorpha de la famille des Pleurobranches. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer jusqu'à 6 cm. 
 La coloration de cette espèce varie grandement allant de l'orange brun clair, au noir, au blanc en passant par le crème et le corps est toujours parsemé de taches sombres ou claires selon sa couleur de fond dominante.
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo/Ouest-Pacifique, de l'archipel des Mascareignes aux côtes d'Amérique centrale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo/Ouest-Pacifique, de l'archipel des Mascareignes aux côtes d'Amérique centrale.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes, fréquemment rencontrée entre la zone intertidale  et 25 m.
 </t>
@@ -611,7 +629,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Pleurobranche est benthique et plutôt nocturne.
 </t>
@@ -642,9 +662,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berthella martensi se nourrit principalement d'éponges et de tuniciers[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berthella martensi se nourrit principalement d'éponges et de tuniciers.
 </t>
         </is>
       </c>
